--- a/Code/Results/Cases/Case_5_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.005244850817114</v>
+        <v>1.037623761840726</v>
       </c>
       <c r="D2">
-        <v>1.024392790497397</v>
+        <v>1.043173887947078</v>
       </c>
       <c r="E2">
-        <v>1.019927210030134</v>
+        <v>1.045526345577224</v>
       </c>
       <c r="F2">
-        <v>1.028442242588784</v>
+        <v>1.054336280728075</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044743919026194</v>
+        <v>1.034503794856442</v>
       </c>
       <c r="J2">
-        <v>1.027269813017506</v>
+        <v>1.042725623761427</v>
       </c>
       <c r="K2">
-        <v>1.035522441180985</v>
+        <v>1.045948498789237</v>
       </c>
       <c r="L2">
-        <v>1.031115735970975</v>
+        <v>1.048294338033103</v>
       </c>
       <c r="M2">
-        <v>1.039519057776967</v>
+        <v>1.057079771785202</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009681075164445</v>
+        <v>1.038577805455057</v>
       </c>
       <c r="D3">
-        <v>1.027603130364033</v>
+        <v>1.043883638273903</v>
       </c>
       <c r="E3">
-        <v>1.023559503536688</v>
+        <v>1.046358070655741</v>
       </c>
       <c r="F3">
-        <v>1.032274874835601</v>
+        <v>1.055213040439652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045638557166882</v>
+        <v>1.034633692900024</v>
       </c>
       <c r="J3">
-        <v>1.029911258940276</v>
+        <v>1.043324100484633</v>
       </c>
       <c r="K3">
-        <v>1.037894597929134</v>
+        <v>1.04646949527728</v>
       </c>
       <c r="L3">
-        <v>1.033899555658438</v>
+        <v>1.048937468656444</v>
       </c>
       <c r="M3">
-        <v>1.042510798046835</v>
+        <v>1.057769592038709</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012496472148455</v>
+        <v>1.039195782692574</v>
       </c>
       <c r="D4">
-        <v>1.029642840515654</v>
+        <v>1.044343245103835</v>
       </c>
       <c r="E4">
-        <v>1.025870595611563</v>
+        <v>1.046897167687353</v>
       </c>
       <c r="F4">
-        <v>1.034712815865443</v>
+        <v>1.055781259504698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046195768793812</v>
+        <v>1.034716500506095</v>
       </c>
       <c r="J4">
-        <v>1.031585830031135</v>
+        <v>1.043711384291605</v>
       </c>
       <c r="K4">
-        <v>1.039396196668392</v>
+        <v>1.046806292092814</v>
       </c>
       <c r="L4">
-        <v>1.035666498529223</v>
+        <v>1.049353883366778</v>
       </c>
       <c r="M4">
-        <v>1.044409589360746</v>
+        <v>1.058216207624402</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013667318229549</v>
+        <v>1.0394557341094</v>
       </c>
       <c r="D5">
-        <v>1.030491595233611</v>
+        <v>1.044536546244918</v>
       </c>
       <c r="E5">
-        <v>1.026833086179586</v>
+        <v>1.047124021658703</v>
       </c>
       <c r="F5">
-        <v>1.035727985599186</v>
+        <v>1.056020351891659</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04642492237026</v>
+        <v>1.03475101415101</v>
       </c>
       <c r="J5">
-        <v>1.032281772869886</v>
+        <v>1.043874204300288</v>
       </c>
       <c r="K5">
-        <v>1.040019696596612</v>
+        <v>1.046947803017557</v>
       </c>
       <c r="L5">
-        <v>1.036401336321255</v>
+        <v>1.049529006600433</v>
       </c>
       <c r="M5">
-        <v>1.045199227556548</v>
+        <v>1.058404024676443</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013863173735822</v>
+        <v>1.039499390080593</v>
       </c>
       <c r="D6">
-        <v>1.030633599766214</v>
+        <v>1.044569007144882</v>
       </c>
       <c r="E6">
-        <v>1.026994167942096</v>
+        <v>1.0471621241528</v>
       </c>
       <c r="F6">
-        <v>1.035897874934688</v>
+        <v>1.056060509003968</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046463101889751</v>
+        <v>1.034756791612422</v>
       </c>
       <c r="J6">
-        <v>1.032398159678349</v>
+        <v>1.043901542809126</v>
       </c>
       <c r="K6">
-        <v>1.040123935160618</v>
+        <v>1.046971558689197</v>
       </c>
       <c r="L6">
-        <v>1.036524257474566</v>
+        <v>1.049558414190391</v>
       </c>
       <c r="M6">
-        <v>1.045331313506248</v>
+        <v>1.058435563456355</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012512166552465</v>
+        <v>1.039199255573299</v>
       </c>
       <c r="D7">
-        <v>1.029654215620095</v>
+        <v>1.044345827681237</v>
       </c>
       <c r="E7">
-        <v>1.025883491793336</v>
+        <v>1.046900198068222</v>
       </c>
       <c r="F7">
-        <v>1.034726418471875</v>
+        <v>1.055784453433613</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046198850668612</v>
+        <v>1.034716962853422</v>
       </c>
       <c r="J7">
-        <v>1.031595160559725</v>
+        <v>1.043713559878779</v>
       </c>
       <c r="K7">
-        <v>1.039404558171599</v>
+        <v>1.046808183278491</v>
       </c>
       <c r="L7">
-        <v>1.035676348527198</v>
+        <v>1.04935622312801</v>
       </c>
       <c r="M7">
-        <v>1.044420174054783</v>
+        <v>1.058218717011554</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006755789739742</v>
+        <v>1.037946050635842</v>
       </c>
       <c r="D8">
-        <v>1.025485684827228</v>
+        <v>1.043413677786368</v>
       </c>
       <c r="E8">
-        <v>1.021163073132949</v>
+        <v>1.045807240517034</v>
       </c>
       <c r="F8">
-        <v>1.029746398728325</v>
+        <v>1.054632399088221</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045050811713787</v>
+        <v>1.034547951962691</v>
       </c>
       <c r="J8">
-        <v>1.028169819572306</v>
+        <v>1.042927875015868</v>
       </c>
       <c r="K8">
-        <v>1.036331157067408</v>
+        <v>1.046124638104078</v>
       </c>
       <c r="L8">
-        <v>1.032063809093694</v>
+        <v>1.048511631177376</v>
       </c>
       <c r="M8">
-        <v>1.040537965070998</v>
+        <v>1.057312845991051</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9961685507863703</v>
+        <v>1.035742751723985</v>
       </c>
       <c r="D9">
-        <v>1.017839946758113</v>
+        <v>1.041773867822333</v>
       </c>
       <c r="E9">
-        <v>1.012530217757066</v>
+        <v>1.043888387874671</v>
       </c>
       <c r="F9">
-        <v>1.020633911496459</v>
+        <v>1.052609273327368</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04285742059919</v>
+        <v>1.034240623171541</v>
       </c>
       <c r="J9">
-        <v>1.021857336682945</v>
+        <v>1.041543672589867</v>
       </c>
       <c r="K9">
-        <v>1.030650065436656</v>
+        <v>1.044917724830254</v>
       </c>
       <c r="L9">
-        <v>1.025423220242317</v>
+        <v>1.047025445638036</v>
       </c>
       <c r="M9">
-        <v>1.033400859004832</v>
+        <v>1.05571860474799</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9887801532156171</v>
+        <v>1.034277321333194</v>
       </c>
       <c r="D10">
-        <v>1.012522698477982</v>
+        <v>1.040682608668339</v>
       </c>
       <c r="E10">
-        <v>1.006542136378357</v>
+        <v>1.042614003290575</v>
       </c>
       <c r="F10">
-        <v>1.014309889179123</v>
+        <v>1.051265286297231</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041274108020637</v>
+        <v>1.034029378329756</v>
       </c>
       <c r="J10">
-        <v>1.017446106425088</v>
+        <v>1.040621122499976</v>
       </c>
       <c r="K10">
-        <v>1.026669473810375</v>
+        <v>1.044111559838688</v>
       </c>
       <c r="L10">
-        <v>1.020794266707864</v>
+        <v>1.046036136064702</v>
       </c>
       <c r="M10">
-        <v>1.028425493072477</v>
+        <v>1.054657215980736</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9854948809678914</v>
+        <v>1.033643602732423</v>
       </c>
       <c r="D11">
-        <v>1.010163700398527</v>
+        <v>1.040210562984775</v>
       </c>
       <c r="E11">
-        <v>1.003888933247274</v>
+        <v>1.042063350354264</v>
       </c>
       <c r="F11">
-        <v>1.011507076150513</v>
+        <v>1.050684475153295</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040558239258523</v>
+        <v>1.033936406032986</v>
       </c>
       <c r="J11">
-        <v>1.015483792514555</v>
+        <v>1.040221721730944</v>
       </c>
       <c r="K11">
-        <v>1.024896456256031</v>
+        <v>1.043762127147612</v>
       </c>
       <c r="L11">
-        <v>1.018737880755283</v>
+        <v>1.045608120649843</v>
       </c>
       <c r="M11">
-        <v>1.026215200285597</v>
+        <v>1.054197981147682</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9842609518060063</v>
+        <v>1.033408336081603</v>
       </c>
       <c r="D12">
-        <v>1.009278561838454</v>
+        <v>1.040035297397678</v>
       </c>
       <c r="E12">
-        <v>1.002893889365716</v>
+        <v>1.041858989750477</v>
       </c>
       <c r="F12">
-        <v>1.010455809952573</v>
+        <v>1.050468909544062</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040287640236268</v>
+        <v>1.03390164690701</v>
       </c>
       <c r="J12">
-        <v>1.014746682885028</v>
+        <v>1.040073378046884</v>
       </c>
       <c r="K12">
-        <v>1.024230132332455</v>
+        <v>1.043632279680375</v>
       </c>
       <c r="L12">
-        <v>1.01796585624335</v>
+        <v>1.045449192296452</v>
       </c>
       <c r="M12">
-        <v>1.025385397743901</v>
+        <v>1.054027455344625</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9845262625589351</v>
+        <v>1.033458795918378</v>
       </c>
       <c r="D13">
-        <v>1.009468836566721</v>
+        <v>1.040072889123457</v>
       </c>
       <c r="E13">
-        <v>1.003107768492534</v>
+        <v>1.041902817785898</v>
       </c>
       <c r="F13">
-        <v>1.010681778859994</v>
+        <v>1.050515141221266</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0403458994465</v>
+        <v>1.033909113033559</v>
       </c>
       <c r="J13">
-        <v>1.014905173583577</v>
+        <v>1.040105197730541</v>
       </c>
       <c r="K13">
-        <v>1.02437341706447</v>
+        <v>1.043660134764714</v>
       </c>
       <c r="L13">
-        <v>1.018131835096766</v>
+        <v>1.045483280430841</v>
       </c>
       <c r="M13">
-        <v>1.025563798177777</v>
+        <v>1.054064031222057</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9853931663484505</v>
+        <v>1.033624152968431</v>
       </c>
       <c r="D14">
-        <v>1.010090718555637</v>
+        <v>1.040196073974364</v>
       </c>
       <c r="E14">
-        <v>1.003806879720645</v>
+        <v>1.042046454235312</v>
       </c>
       <c r="F14">
-        <v>1.011420388707019</v>
+        <v>1.05066665288386</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04053596806874</v>
+        <v>1.03393353742098</v>
       </c>
       <c r="J14">
-        <v>1.015423032708477</v>
+        <v>1.040209459353854</v>
       </c>
       <c r="K14">
-        <v>1.024841537688662</v>
+        <v>1.043751394981883</v>
       </c>
       <c r="L14">
-        <v>1.018674234326342</v>
+        <v>1.045594982440707</v>
       </c>
       <c r="M14">
-        <v>1.026146790492196</v>
+        <v>1.054183884312796</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9859254660152527</v>
+        <v>1.03372605145508</v>
       </c>
       <c r="D15">
-        <v>1.010472688661846</v>
+        <v>1.040271981973076</v>
       </c>
       <c r="E15">
-        <v>1.004236348574024</v>
+        <v>1.042134976815017</v>
       </c>
       <c r="F15">
-        <v>1.011874106901252</v>
+        <v>1.050760027259976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040652449230589</v>
+        <v>1.033948556284461</v>
       </c>
       <c r="J15">
-        <v>1.015741002156197</v>
+        <v>1.040273699943839</v>
       </c>
       <c r="K15">
-        <v>1.025128925718753</v>
+        <v>1.043807616477604</v>
       </c>
       <c r="L15">
-        <v>1.019007327322419</v>
+        <v>1.045663813143476</v>
       </c>
       <c r="M15">
-        <v>1.026504812660772</v>
+        <v>1.054257737014729</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9889963138799924</v>
+        <v>1.034319396570442</v>
       </c>
       <c r="D16">
-        <v>1.012678031544755</v>
+        <v>1.040713946964288</v>
       </c>
       <c r="E16">
-        <v>1.006716910905074</v>
+        <v>1.042650572967726</v>
       </c>
       <c r="F16">
-        <v>1.014494503155101</v>
+        <v>1.051303857063401</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041320967774214</v>
+        <v>1.03403551700017</v>
       </c>
       <c r="J16">
-        <v>1.0175752071797</v>
+        <v>1.040647630972119</v>
       </c>
       <c r="K16">
-        <v>1.026786075163199</v>
+        <v>1.044134743094056</v>
       </c>
       <c r="L16">
-        <v>1.020929614751472</v>
+        <v>1.046064549772443</v>
       </c>
       <c r="M16">
-        <v>1.028570971132268</v>
+        <v>1.054687701447442</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9908990551568115</v>
+        <v>1.034691807242932</v>
       </c>
       <c r="D17">
-        <v>1.014045959043013</v>
+        <v>1.040991308672883</v>
       </c>
       <c r="E17">
-        <v>1.008256433743941</v>
+        <v>1.042974305532851</v>
       </c>
       <c r="F17">
-        <v>1.016120611245148</v>
+        <v>1.051645294585856</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041732105406219</v>
+        <v>1.034089663461309</v>
       </c>
       <c r="J17">
-        <v>1.018711518310645</v>
+        <v>1.040882207413921</v>
       </c>
       <c r="K17">
-        <v>1.027812113653779</v>
+        <v>1.044339845974201</v>
       </c>
       <c r="L17">
-        <v>1.022121230057382</v>
+        <v>1.046316019092897</v>
       </c>
       <c r="M17">
-        <v>1.029851770810894</v>
+        <v>1.054957502374003</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9920006396906648</v>
+        <v>1.034909107366348</v>
       </c>
       <c r="D18">
-        <v>1.014838415698836</v>
+        <v>1.041153134957078</v>
       </c>
       <c r="E18">
-        <v>1.009148623720853</v>
+        <v>1.043163245466836</v>
       </c>
       <c r="F18">
-        <v>1.017062906939724</v>
+        <v>1.051844559597254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041969003257844</v>
+        <v>1.03412110122773</v>
       </c>
       <c r="J18">
-        <v>1.019369297139793</v>
+        <v>1.041019038516218</v>
       </c>
       <c r="K18">
-        <v>1.028405841676717</v>
+        <v>1.044459444400753</v>
       </c>
       <c r="L18">
-        <v>1.022811286709634</v>
+        <v>1.046462731754294</v>
       </c>
       <c r="M18">
-        <v>1.030593471761587</v>
+        <v>1.055114906707488</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9923748724670834</v>
+        <v>1.034983214506784</v>
       </c>
       <c r="D19">
-        <v>1.01510771323249</v>
+        <v>1.041208321274222</v>
       </c>
       <c r="E19">
-        <v>1.009451869346608</v>
+        <v>1.043227688086985</v>
       </c>
       <c r="F19">
-        <v>1.017383170628972</v>
+        <v>1.051912522472977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042049289625599</v>
+        <v>1.034131796090709</v>
       </c>
       <c r="J19">
-        <v>1.019592743496859</v>
+        <v>1.041065695477547</v>
       </c>
       <c r="K19">
-        <v>1.028607492651485</v>
+        <v>1.044500218466963</v>
       </c>
       <c r="L19">
-        <v>1.023045742424621</v>
+        <v>1.046512762856449</v>
       </c>
       <c r="M19">
-        <v>1.030845473845005</v>
+        <v>1.055168583246416</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9906957675408209</v>
+        <v>1.034651842894129</v>
       </c>
       <c r="D20">
-        <v>1.013899758061606</v>
+        <v>1.040961545628258</v>
       </c>
       <c r="E20">
-        <v>1.008091859410516</v>
+        <v>1.042939560475299</v>
       </c>
       <c r="F20">
-        <v>1.015946788495392</v>
+        <v>1.051608650152411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0416882964163</v>
+        <v>1.034083869047056</v>
       </c>
       <c r="J20">
-        <v>1.018590123938088</v>
+        <v>1.040857038887721</v>
       </c>
       <c r="K20">
-        <v>1.027702522295342</v>
+        <v>1.044317843948016</v>
       </c>
       <c r="L20">
-        <v>1.021993900040223</v>
+        <v>1.046289035200013</v>
       </c>
       <c r="M20">
-        <v>1.029714911150144</v>
+        <v>1.054928551759577</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9851382670234224</v>
+        <v>1.033575455988744</v>
       </c>
       <c r="D21">
-        <v>1.009907838869808</v>
+        <v>1.040159797072825</v>
       </c>
       <c r="E21">
-        <v>1.00360127572303</v>
+        <v>1.042004151998753</v>
       </c>
       <c r="F21">
-        <v>1.011203171540229</v>
+        <v>1.050622031672804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040480128361481</v>
+        <v>1.033926351256276</v>
       </c>
       <c r="J21">
-        <v>1.015270766103608</v>
+        <v>1.040178756576888</v>
       </c>
       <c r="K21">
-        <v>1.024703904384796</v>
+        <v>1.043724522565368</v>
       </c>
       <c r="L21">
-        <v>1.018514740531633</v>
+        <v>1.045562087437474</v>
       </c>
       <c r="M21">
-        <v>1.025975360081608</v>
+        <v>1.054148589050581</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9815647861900498</v>
+        <v>1.032899410573528</v>
       </c>
       <c r="D22">
-        <v>1.007346242386835</v>
+        <v>1.039656130211826</v>
       </c>
       <c r="E22">
-        <v>1.000722501228707</v>
+        <v>1.041417045004609</v>
       </c>
       <c r="F22">
-        <v>1.008161526154471</v>
+        <v>1.050002710155278</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039693271910955</v>
+        <v>1.033826011633793</v>
       </c>
       <c r="J22">
-        <v>1.013135999349673</v>
+        <v>1.039752360908698</v>
       </c>
       <c r="K22">
-        <v>1.022773560137658</v>
+        <v>1.043351174071988</v>
       </c>
       <c r="L22">
-        <v>1.016279658803511</v>
+        <v>1.045105348983195</v>
       </c>
       <c r="M22">
-        <v>1.023573017121549</v>
+        <v>1.053658511304659</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9834669170203617</v>
+        <v>1.033257726258911</v>
       </c>
       <c r="D23">
-        <v>1.008709235376805</v>
+        <v>1.039923092802685</v>
       </c>
       <c r="E23">
-        <v>1.002254004582168</v>
+        <v>1.041728184196542</v>
       </c>
       <c r="F23">
-        <v>1.009779738361785</v>
+        <v>1.050330928436362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040113031278747</v>
+        <v>1.033879326785279</v>
       </c>
       <c r="J23">
-        <v>1.014272337251905</v>
+        <v>1.039978394568547</v>
       </c>
       <c r="K23">
-        <v>1.0238012512496</v>
+        <v>1.043549121578246</v>
       </c>
       <c r="L23">
-        <v>1.017469161477674</v>
+        <v>1.045347443707287</v>
       </c>
       <c r="M23">
-        <v>1.0248515320037</v>
+        <v>1.05391828040816</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9907876499147584</v>
+        <v>1.034669900818231</v>
       </c>
       <c r="D24">
-        <v>1.013965836750795</v>
+        <v>1.040974994125366</v>
       </c>
       <c r="E24">
-        <v>1.008166241320056</v>
+        <v>1.042955259924696</v>
       </c>
       <c r="F24">
-        <v>1.016025350594095</v>
+        <v>1.051625207853971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041708100800916</v>
+        <v>1.034086487741362</v>
       </c>
       <c r="J24">
-        <v>1.018644992292008</v>
+        <v>1.040868411440959</v>
       </c>
       <c r="K24">
-        <v>1.027752056546337</v>
+        <v>1.044327785823653</v>
       </c>
       <c r="L24">
-        <v>1.022051450395004</v>
+        <v>1.04630122795211</v>
       </c>
       <c r="M24">
-        <v>1.029776768699236</v>
+        <v>1.054941633191104</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9989613547295207</v>
+        <v>1.03631175678202</v>
       </c>
       <c r="D25">
-        <v>1.01985394493855</v>
+        <v>1.042197461599448</v>
       </c>
       <c r="E25">
-        <v>1.014801432595488</v>
+        <v>1.044383609043188</v>
       </c>
       <c r="F25">
-        <v>1.023031877859025</v>
+        <v>1.053131467310276</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043445300800343</v>
+        <v>1.034321198412053</v>
       </c>
       <c r="J25">
-        <v>1.023523724060896</v>
+        <v>1.041901482660622</v>
       </c>
       <c r="K25">
-        <v>1.032151678176137</v>
+        <v>1.045230020283457</v>
       </c>
       <c r="L25">
-        <v>1.027174239838877</v>
+        <v>1.047409404594498</v>
       </c>
       <c r="M25">
-        <v>1.03528287320287</v>
+        <v>1.056130506677703</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037623761840726</v>
+        <v>1.005244850817113</v>
       </c>
       <c r="D2">
-        <v>1.043173887947078</v>
+        <v>1.024392790497397</v>
       </c>
       <c r="E2">
-        <v>1.045526345577224</v>
+        <v>1.019927210030134</v>
       </c>
       <c r="F2">
-        <v>1.054336280728075</v>
+        <v>1.028442242588784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034503794856442</v>
+        <v>1.044743919026194</v>
       </c>
       <c r="J2">
-        <v>1.042725623761427</v>
+        <v>1.027269813017506</v>
       </c>
       <c r="K2">
-        <v>1.045948498789237</v>
+        <v>1.035522441180985</v>
       </c>
       <c r="L2">
-        <v>1.048294338033103</v>
+        <v>1.031115735970975</v>
       </c>
       <c r="M2">
-        <v>1.057079771785202</v>
+        <v>1.039519057776967</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038577805455057</v>
+        <v>1.009681075164446</v>
       </c>
       <c r="D3">
-        <v>1.043883638273903</v>
+        <v>1.027603130364035</v>
       </c>
       <c r="E3">
-        <v>1.046358070655741</v>
+        <v>1.023559503536689</v>
       </c>
       <c r="F3">
-        <v>1.055213040439652</v>
+        <v>1.032274874835602</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034633692900024</v>
+        <v>1.045638557166883</v>
       </c>
       <c r="J3">
-        <v>1.043324100484633</v>
+        <v>1.029911258940277</v>
       </c>
       <c r="K3">
-        <v>1.04646949527728</v>
+        <v>1.037894597929135</v>
       </c>
       <c r="L3">
-        <v>1.048937468656444</v>
+        <v>1.033899555658439</v>
       </c>
       <c r="M3">
-        <v>1.057769592038709</v>
+        <v>1.042510798046837</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039195782692574</v>
+        <v>1.012496472148455</v>
       </c>
       <c r="D4">
-        <v>1.044343245103835</v>
+        <v>1.029642840515655</v>
       </c>
       <c r="E4">
-        <v>1.046897167687353</v>
+        <v>1.025870595611564</v>
       </c>
       <c r="F4">
-        <v>1.055781259504698</v>
+        <v>1.034712815865443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034716500506095</v>
+        <v>1.046195768793812</v>
       </c>
       <c r="J4">
-        <v>1.043711384291605</v>
+        <v>1.031585830031135</v>
       </c>
       <c r="K4">
-        <v>1.046806292092814</v>
+        <v>1.039396196668393</v>
       </c>
       <c r="L4">
-        <v>1.049353883366778</v>
+        <v>1.035666498529224</v>
       </c>
       <c r="M4">
-        <v>1.058216207624402</v>
+        <v>1.044409589360747</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0394557341094</v>
+        <v>1.013667318229548</v>
       </c>
       <c r="D5">
-        <v>1.044536546244918</v>
+        <v>1.03049159523361</v>
       </c>
       <c r="E5">
-        <v>1.047124021658703</v>
+        <v>1.026833086179584</v>
       </c>
       <c r="F5">
-        <v>1.056020351891659</v>
+        <v>1.035727985599184</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03475101415101</v>
+        <v>1.04642492237026</v>
       </c>
       <c r="J5">
-        <v>1.043874204300288</v>
+        <v>1.032281772869885</v>
       </c>
       <c r="K5">
-        <v>1.046947803017557</v>
+        <v>1.040019696596611</v>
       </c>
       <c r="L5">
-        <v>1.049529006600433</v>
+        <v>1.036401336321254</v>
       </c>
       <c r="M5">
-        <v>1.058404024676443</v>
+        <v>1.045199227556546</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039499390080593</v>
+        <v>1.013863173735821</v>
       </c>
       <c r="D6">
-        <v>1.044569007144882</v>
+        <v>1.030633599766213</v>
       </c>
       <c r="E6">
-        <v>1.0471621241528</v>
+        <v>1.026994167942096</v>
       </c>
       <c r="F6">
-        <v>1.056060509003968</v>
+        <v>1.035897874934687</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034756791612422</v>
+        <v>1.046463101889751</v>
       </c>
       <c r="J6">
-        <v>1.043901542809126</v>
+        <v>1.032398159678348</v>
       </c>
       <c r="K6">
-        <v>1.046971558689197</v>
+        <v>1.040123935160618</v>
       </c>
       <c r="L6">
-        <v>1.049558414190391</v>
+        <v>1.036524257474566</v>
       </c>
       <c r="M6">
-        <v>1.058435563456355</v>
+        <v>1.045331313506248</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039199255573299</v>
+        <v>1.012512166552467</v>
       </c>
       <c r="D7">
-        <v>1.044345827681237</v>
+        <v>1.029654215620096</v>
       </c>
       <c r="E7">
-        <v>1.046900198068222</v>
+        <v>1.025883491793337</v>
       </c>
       <c r="F7">
-        <v>1.055784453433613</v>
+        <v>1.034726418471876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034716962853422</v>
+        <v>1.046198850668612</v>
       </c>
       <c r="J7">
-        <v>1.043713559878779</v>
+        <v>1.031595160559726</v>
       </c>
       <c r="K7">
-        <v>1.046808183278491</v>
+        <v>1.0394045581716</v>
       </c>
       <c r="L7">
-        <v>1.04935622312801</v>
+        <v>1.0356763485272</v>
       </c>
       <c r="M7">
-        <v>1.058218717011554</v>
+        <v>1.044420174054784</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037946050635842</v>
+        <v>1.006755789739742</v>
       </c>
       <c r="D8">
-        <v>1.043413677786368</v>
+        <v>1.025485684827228</v>
       </c>
       <c r="E8">
-        <v>1.045807240517034</v>
+        <v>1.021163073132949</v>
       </c>
       <c r="F8">
-        <v>1.054632399088221</v>
+        <v>1.029746398728324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034547951962691</v>
+        <v>1.045050811713787</v>
       </c>
       <c r="J8">
-        <v>1.042927875015868</v>
+        <v>1.028169819572306</v>
       </c>
       <c r="K8">
-        <v>1.046124638104078</v>
+        <v>1.036331157067408</v>
       </c>
       <c r="L8">
-        <v>1.048511631177376</v>
+        <v>1.032063809093694</v>
       </c>
       <c r="M8">
-        <v>1.057312845991051</v>
+        <v>1.040537965070998</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035742751723985</v>
+        <v>0.9961685507863705</v>
       </c>
       <c r="D9">
-        <v>1.041773867822333</v>
+        <v>1.017839946758113</v>
       </c>
       <c r="E9">
-        <v>1.043888387874671</v>
+        <v>1.012530217757065</v>
       </c>
       <c r="F9">
-        <v>1.052609273327368</v>
+        <v>1.020633911496458</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034240623171541</v>
+        <v>1.042857420599189</v>
       </c>
       <c r="J9">
-        <v>1.041543672589867</v>
+        <v>1.021857336682945</v>
       </c>
       <c r="K9">
-        <v>1.044917724830254</v>
+        <v>1.030650065436656</v>
       </c>
       <c r="L9">
-        <v>1.047025445638036</v>
+        <v>1.025423220242317</v>
       </c>
       <c r="M9">
-        <v>1.05571860474799</v>
+        <v>1.033400859004832</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034277321333194</v>
+        <v>0.9887801532156167</v>
       </c>
       <c r="D10">
-        <v>1.040682608668339</v>
+        <v>1.012522698477982</v>
       </c>
       <c r="E10">
-        <v>1.042614003290575</v>
+        <v>1.006542136378356</v>
       </c>
       <c r="F10">
-        <v>1.051265286297231</v>
+        <v>1.014309889179123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034029378329756</v>
+        <v>1.041274108020637</v>
       </c>
       <c r="J10">
-        <v>1.040621122499976</v>
+        <v>1.017446106425088</v>
       </c>
       <c r="K10">
-        <v>1.044111559838688</v>
+        <v>1.026669473810375</v>
       </c>
       <c r="L10">
-        <v>1.046036136064702</v>
+        <v>1.020794266707863</v>
       </c>
       <c r="M10">
-        <v>1.054657215980736</v>
+        <v>1.028425493072477</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033643602732423</v>
+        <v>0.9854948809678921</v>
       </c>
       <c r="D11">
-        <v>1.040210562984775</v>
+        <v>1.010163700398527</v>
       </c>
       <c r="E11">
-        <v>1.042063350354264</v>
+        <v>1.003888933247274</v>
       </c>
       <c r="F11">
-        <v>1.050684475153295</v>
+        <v>1.011507076150513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033936406032986</v>
+        <v>1.040558239258523</v>
       </c>
       <c r="J11">
-        <v>1.040221721730944</v>
+        <v>1.015483792514555</v>
       </c>
       <c r="K11">
-        <v>1.043762127147612</v>
+        <v>1.024896456256032</v>
       </c>
       <c r="L11">
-        <v>1.045608120649843</v>
+        <v>1.018737880755283</v>
       </c>
       <c r="M11">
-        <v>1.054197981147682</v>
+        <v>1.026215200285597</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033408336081603</v>
+        <v>0.9842609518060048</v>
       </c>
       <c r="D12">
-        <v>1.040035297397678</v>
+        <v>1.009278561838453</v>
       </c>
       <c r="E12">
-        <v>1.041858989750477</v>
+        <v>1.002893889365714</v>
       </c>
       <c r="F12">
-        <v>1.050468909544062</v>
+        <v>1.010455809952572</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03390164690701</v>
+        <v>1.040287640236268</v>
       </c>
       <c r="J12">
-        <v>1.040073378046884</v>
+        <v>1.014746682885027</v>
       </c>
       <c r="K12">
-        <v>1.043632279680375</v>
+        <v>1.024230132332454</v>
       </c>
       <c r="L12">
-        <v>1.045449192296452</v>
+        <v>1.017965856243349</v>
       </c>
       <c r="M12">
-        <v>1.054027455344625</v>
+        <v>1.025385397743899</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033458795918378</v>
+        <v>0.9845262625589352</v>
       </c>
       <c r="D13">
-        <v>1.040072889123457</v>
+        <v>1.009468836566721</v>
       </c>
       <c r="E13">
-        <v>1.041902817785898</v>
+        <v>1.003107768492535</v>
       </c>
       <c r="F13">
-        <v>1.050515141221266</v>
+        <v>1.010681778859995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033909113033559</v>
+        <v>1.0403458994465</v>
       </c>
       <c r="J13">
-        <v>1.040105197730541</v>
+        <v>1.014905173583577</v>
       </c>
       <c r="K13">
-        <v>1.043660134764714</v>
+        <v>1.02437341706447</v>
       </c>
       <c r="L13">
-        <v>1.045483280430841</v>
+        <v>1.018131835096766</v>
       </c>
       <c r="M13">
-        <v>1.054064031222057</v>
+        <v>1.025563798177778</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033624152968431</v>
+        <v>0.9853931663484506</v>
       </c>
       <c r="D14">
-        <v>1.040196073974364</v>
+        <v>1.010090718555637</v>
       </c>
       <c r="E14">
-        <v>1.042046454235312</v>
+        <v>1.003806879720645</v>
       </c>
       <c r="F14">
-        <v>1.05066665288386</v>
+        <v>1.011420388707018</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03393353742098</v>
+        <v>1.04053596806874</v>
       </c>
       <c r="J14">
-        <v>1.040209459353854</v>
+        <v>1.015423032708477</v>
       </c>
       <c r="K14">
-        <v>1.043751394981883</v>
+        <v>1.024841537688662</v>
       </c>
       <c r="L14">
-        <v>1.045594982440707</v>
+        <v>1.018674234326342</v>
       </c>
       <c r="M14">
-        <v>1.054183884312796</v>
+        <v>1.026146790492195</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03372605145508</v>
+        <v>0.9859254660152522</v>
       </c>
       <c r="D15">
-        <v>1.040271981973076</v>
+        <v>1.010472688661846</v>
       </c>
       <c r="E15">
-        <v>1.042134976815017</v>
+        <v>1.004236348574023</v>
       </c>
       <c r="F15">
-        <v>1.050760027259976</v>
+        <v>1.011874106901251</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033948556284461</v>
+        <v>1.040652449230589</v>
       </c>
       <c r="J15">
-        <v>1.040273699943839</v>
+        <v>1.015741002156197</v>
       </c>
       <c r="K15">
-        <v>1.043807616477604</v>
+        <v>1.025128925718752</v>
       </c>
       <c r="L15">
-        <v>1.045663813143476</v>
+        <v>1.019007327322418</v>
       </c>
       <c r="M15">
-        <v>1.054257737014729</v>
+        <v>1.026504812660771</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034319396570442</v>
+        <v>0.9889963138799923</v>
       </c>
       <c r="D16">
-        <v>1.040713946964288</v>
+        <v>1.012678031544755</v>
       </c>
       <c r="E16">
-        <v>1.042650572967726</v>
+        <v>1.006716910905075</v>
       </c>
       <c r="F16">
-        <v>1.051303857063401</v>
+        <v>1.014494503155101</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03403551700017</v>
+        <v>1.041320967774215</v>
       </c>
       <c r="J16">
-        <v>1.040647630972119</v>
+        <v>1.0175752071797</v>
       </c>
       <c r="K16">
-        <v>1.044134743094056</v>
+        <v>1.026786075163199</v>
       </c>
       <c r="L16">
-        <v>1.046064549772443</v>
+        <v>1.020929614751472</v>
       </c>
       <c r="M16">
-        <v>1.054687701447442</v>
+        <v>1.028570971132268</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034691807242932</v>
+        <v>0.9908990551568124</v>
       </c>
       <c r="D17">
-        <v>1.040991308672883</v>
+        <v>1.014045959043014</v>
       </c>
       <c r="E17">
-        <v>1.042974305532851</v>
+        <v>1.008256433743941</v>
       </c>
       <c r="F17">
-        <v>1.051645294585856</v>
+        <v>1.016120611245149</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034089663461309</v>
+        <v>1.04173210540622</v>
       </c>
       <c r="J17">
-        <v>1.040882207413921</v>
+        <v>1.018711518310645</v>
       </c>
       <c r="K17">
-        <v>1.044339845974201</v>
+        <v>1.02781211365378</v>
       </c>
       <c r="L17">
-        <v>1.046316019092897</v>
+        <v>1.022121230057383</v>
       </c>
       <c r="M17">
-        <v>1.054957502374003</v>
+        <v>1.029851770810895</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034909107366348</v>
+        <v>0.9920006396906655</v>
       </c>
       <c r="D18">
-        <v>1.041153134957078</v>
+        <v>1.014838415698836</v>
       </c>
       <c r="E18">
-        <v>1.043163245466836</v>
+        <v>1.009148623720854</v>
       </c>
       <c r="F18">
-        <v>1.051844559597254</v>
+        <v>1.017062906939725</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03412110122773</v>
+        <v>1.041969003257844</v>
       </c>
       <c r="J18">
-        <v>1.041019038516218</v>
+        <v>1.019369297139793</v>
       </c>
       <c r="K18">
-        <v>1.044459444400753</v>
+        <v>1.028405841676718</v>
       </c>
       <c r="L18">
-        <v>1.046462731754294</v>
+        <v>1.022811286709635</v>
       </c>
       <c r="M18">
-        <v>1.055114906707488</v>
+        <v>1.030593471761588</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034983214506784</v>
+        <v>0.9923748724670832</v>
       </c>
       <c r="D19">
-        <v>1.041208321274222</v>
+        <v>1.015107713232489</v>
       </c>
       <c r="E19">
-        <v>1.043227688086985</v>
+        <v>1.009451869346607</v>
       </c>
       <c r="F19">
-        <v>1.051912522472977</v>
+        <v>1.017383170628972</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034131796090709</v>
+        <v>1.042049289625599</v>
       </c>
       <c r="J19">
-        <v>1.041065695477547</v>
+        <v>1.019592743496858</v>
       </c>
       <c r="K19">
-        <v>1.044500218466963</v>
+        <v>1.028607492651485</v>
       </c>
       <c r="L19">
-        <v>1.046512762856449</v>
+        <v>1.023045742424621</v>
       </c>
       <c r="M19">
-        <v>1.055168583246416</v>
+        <v>1.030845473845005</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034651842894129</v>
+        <v>0.9906957675408206</v>
       </c>
       <c r="D20">
-        <v>1.040961545628258</v>
+        <v>1.013899758061605</v>
       </c>
       <c r="E20">
-        <v>1.042939560475299</v>
+        <v>1.008091859410516</v>
       </c>
       <c r="F20">
-        <v>1.051608650152411</v>
+        <v>1.015946788495392</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034083869047056</v>
+        <v>1.041688296416299</v>
       </c>
       <c r="J20">
-        <v>1.040857038887721</v>
+        <v>1.018590123938087</v>
       </c>
       <c r="K20">
-        <v>1.044317843948016</v>
+        <v>1.027702522295341</v>
       </c>
       <c r="L20">
-        <v>1.046289035200013</v>
+        <v>1.021993900040222</v>
       </c>
       <c r="M20">
-        <v>1.054928551759577</v>
+        <v>1.029714911150143</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033575455988744</v>
+        <v>0.985138267023422</v>
       </c>
       <c r="D21">
-        <v>1.040159797072825</v>
+        <v>1.009907838869808</v>
       </c>
       <c r="E21">
-        <v>1.042004151998753</v>
+        <v>1.00360127572303</v>
       </c>
       <c r="F21">
-        <v>1.050622031672804</v>
+        <v>1.011203171540228</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033926351256276</v>
+        <v>1.040480128361481</v>
       </c>
       <c r="J21">
-        <v>1.040178756576888</v>
+        <v>1.015270766103608</v>
       </c>
       <c r="K21">
-        <v>1.043724522565368</v>
+        <v>1.024703904384796</v>
       </c>
       <c r="L21">
-        <v>1.045562087437474</v>
+        <v>1.018514740531633</v>
       </c>
       <c r="M21">
-        <v>1.054148589050581</v>
+        <v>1.025975360081608</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032899410573528</v>
+        <v>0.9815647861900492</v>
       </c>
       <c r="D22">
-        <v>1.039656130211826</v>
+        <v>1.007346242386834</v>
       </c>
       <c r="E22">
-        <v>1.041417045004609</v>
+        <v>1.000722501228706</v>
       </c>
       <c r="F22">
-        <v>1.050002710155278</v>
+        <v>1.00816152615447</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033826011633793</v>
+        <v>1.039693271910955</v>
       </c>
       <c r="J22">
-        <v>1.039752360908698</v>
+        <v>1.013135999349672</v>
       </c>
       <c r="K22">
-        <v>1.043351174071988</v>
+        <v>1.022773560137658</v>
       </c>
       <c r="L22">
-        <v>1.045105348983195</v>
+        <v>1.01627965880351</v>
       </c>
       <c r="M22">
-        <v>1.053658511304659</v>
+        <v>1.023573017121548</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033257726258911</v>
+        <v>0.9834669170203623</v>
       </c>
       <c r="D23">
-        <v>1.039923092802685</v>
+        <v>1.008709235376805</v>
       </c>
       <c r="E23">
-        <v>1.041728184196542</v>
+        <v>1.002254004582169</v>
       </c>
       <c r="F23">
-        <v>1.050330928436362</v>
+        <v>1.009779738361785</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033879326785279</v>
+        <v>1.040113031278748</v>
       </c>
       <c r="J23">
-        <v>1.039978394568547</v>
+        <v>1.014272337251906</v>
       </c>
       <c r="K23">
-        <v>1.043549121578246</v>
+        <v>1.023801251249601</v>
       </c>
       <c r="L23">
-        <v>1.045347443707287</v>
+        <v>1.017469161477675</v>
       </c>
       <c r="M23">
-        <v>1.05391828040816</v>
+        <v>1.024851532003701</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034669900818231</v>
+        <v>0.9907876499147572</v>
       </c>
       <c r="D24">
-        <v>1.040974994125366</v>
+        <v>1.013965836750794</v>
       </c>
       <c r="E24">
-        <v>1.042955259924696</v>
+        <v>1.008166241320055</v>
       </c>
       <c r="F24">
-        <v>1.051625207853971</v>
+        <v>1.016025350594093</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034086487741362</v>
+        <v>1.041708100800915</v>
       </c>
       <c r="J24">
-        <v>1.040868411440959</v>
+        <v>1.018644992292006</v>
       </c>
       <c r="K24">
-        <v>1.044327785823653</v>
+        <v>1.027752056546336</v>
       </c>
       <c r="L24">
-        <v>1.04630122795211</v>
+        <v>1.022051450395002</v>
       </c>
       <c r="M24">
-        <v>1.054941633191104</v>
+        <v>1.029776768699235</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03631175678202</v>
+        <v>0.9989613547295199</v>
       </c>
       <c r="D25">
-        <v>1.042197461599448</v>
+        <v>1.019853944938549</v>
       </c>
       <c r="E25">
-        <v>1.044383609043188</v>
+        <v>1.014801432595487</v>
       </c>
       <c r="F25">
-        <v>1.053131467310276</v>
+        <v>1.023031877859024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034321198412053</v>
+        <v>1.043445300800343</v>
       </c>
       <c r="J25">
-        <v>1.041901482660622</v>
+        <v>1.023523724060895</v>
       </c>
       <c r="K25">
-        <v>1.045230020283457</v>
+        <v>1.032151678176136</v>
       </c>
       <c r="L25">
-        <v>1.047409404594498</v>
+        <v>1.027174239838876</v>
       </c>
       <c r="M25">
-        <v>1.056130506677703</v>
+        <v>1.035282873202869</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
